--- a/data/trans_bre/P19C06-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P19C06-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 3,03</t>
+          <t>-1,45; 2,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 2,66</t>
+          <t>-1,59; 2,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 2,45</t>
+          <t>-1,67; 2,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,2; 2,86</t>
+          <t>0,17; 2,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-69,57; 692,61</t>
+          <t>-74,02; 467,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-76,43; 548,07</t>
+          <t>-77,74; 513,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-79,39; 363,53</t>
+          <t>-74,32; 361,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-32,92; 1328,04</t>
+          <t>-27,31; 1136,86</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 1,31</t>
+          <t>-2,05; 1,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 4,05</t>
+          <t>-0,07; 4,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 2,13</t>
+          <t>-0,62; 2,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 0,78</t>
+          <t>-1,12; 0,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>-89,02; 359,44</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-52,34; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-29,66; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-90,17; 414,05</t>
+          <t>-99,12; 365,99</t>
         </is>
       </c>
     </row>
@@ -868,32 +868,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 2,82</t>
+          <t>-1,93; 2,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 3,76</t>
+          <t>-1,28; 4,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,84; -0,68</t>
+          <t>-3,79; -0,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 0,53</t>
+          <t>-1,54; 0,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 506,9</t>
+          <t>-100,0; 376,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-65,76; 283,36</t>
+          <t>-66,82; 401,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 316,16</t>
+          <t>-100,0; 395,5</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 0,87</t>
+          <t>-1,42; 0,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 1,5</t>
+          <t>-0,35; 1,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 2,05</t>
+          <t>-0,27; 1,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 0,84</t>
+          <t>-1,77; 0,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-74,7; 142,72</t>
+          <t>-79,87; 124,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-48,4; 684,32</t>
+          <t>-50,52; 625,3</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-37,11; 769,41</t>
+          <t>-40,81; 587,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-83,61; 231,53</t>
+          <t>-83,49; 191,11</t>
         </is>
       </c>
     </row>
@@ -1068,22 +1068,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,42; 2,62</t>
+          <t>0,44; 2,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 1,49</t>
+          <t>-1,17; 1,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 0,8</t>
+          <t>-2,53; 0,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 1,75</t>
+          <t>-0,59; 1,7</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1093,17 +1093,17 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-72,63; 483,87</t>
+          <t>-74,62; 369,72</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-86,63; 90,78</t>
+          <t>-82,37; 101,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-53,82; 1113,17</t>
+          <t>-47,82; 999,02</t>
         </is>
       </c>
     </row>
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,41; 1,74</t>
+          <t>0,4; 1,69</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 1,47</t>
+          <t>-0,86; 1,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 1,68</t>
+          <t>-1,21; 1,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 0,46</t>
+          <t>-3,29; 0,48</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-67,63; —</t>
+          <t>-67,77; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 0,61</t>
+          <t>-0,59; 0,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 1,05</t>
+          <t>-0,14; 1,02</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 0,83</t>
+          <t>-0,55; 0,76</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 0,7</t>
+          <t>-0,37; 0,7</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-38,72; 74,19</t>
+          <t>-42,48; 73,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-13,15; 139,48</t>
+          <t>-11,82; 140,65</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-28,86; 90,71</t>
+          <t>-37,82; 85,38</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-31,48; 122,92</t>
+          <t>-33,34; 130,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C06-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P19C06-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
